--- a/Arbeitsschritte.xlsx
+++ b/Arbeitsschritte.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vholt\Documents\Master\1.Semester\FortgeschritteneProgrammierung\Projekt\Project-Firefight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\HAW\Project-Firefight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B908B15-D3F8-403C-A537-E8206921CCC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5912C011-5B05-4550-BD12-C63672C54FF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Project Firefight</t>
   </si>
@@ -112,13 +112,19 @@
   </si>
   <si>
     <t>Tür mit der Axt einschlagen</t>
+  </si>
+  <si>
+    <t>In Bearbeitung</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +135,13 @@
     <font>
       <u/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -155,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -166,10 +179,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -487,28 +503,29 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -521,9 +538,11 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>24</v>
@@ -539,14 +558,14 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -554,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
@@ -567,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
@@ -582,7 +601,7 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
@@ -597,7 +616,9 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
@@ -609,8 +630,10 @@
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -625,7 +648,7 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
@@ -638,7 +661,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>

--- a/Arbeitsschritte.xlsx
+++ b/Arbeitsschritte.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\HAW\Project-Firefight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vholt\Documents\Master\1.Semester\FortgeschritteneProgrammierung\Projekt\Project-Firefight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5912C011-5B05-4550-BD12-C63672C54FF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976AC0C8-3FB4-4152-83A5-CFBB2FF8A09B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Project Firefight</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Absperrung Fkt</t>
   </si>
   <si>
-    <t>Der Player soll mit Hilfe einer Absperrolle in der Lage sein die Straße abzusperren.</t>
-  </si>
-  <si>
     <t>Ideen  für später</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Verteilung der Polygone</t>
   </si>
 </sst>
 </file>
@@ -180,11 +180,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,14 +515,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -538,14 +538,14 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -558,11 +558,13 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -573,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
@@ -586,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
@@ -601,7 +603,7 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
@@ -616,8 +618,8 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -633,7 +635,7 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -648,20 +650,20 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>

--- a/Arbeitsschritte.xlsx
+++ b/Arbeitsschritte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vholt\Documents\Master\1.Semester\FortgeschritteneProgrammierung\Projekt\Project-Firefight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976AC0C8-3FB4-4152-83A5-CFBB2FF8A09B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AECC39-7677-4F00-AEC7-566CFABBCBA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Project Firefight</t>
   </si>
@@ -503,7 +503,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,9 @@
       <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
         <v>24</v>
@@ -574,9 +576,11 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
@@ -589,7 +593,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
     </row>
@@ -604,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
     </row>
@@ -621,7 +625,7 @@
       <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
     </row>
@@ -636,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
     </row>
@@ -650,8 +654,12 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
     </row>
@@ -664,7 +672,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
     </row>

--- a/Arbeitsschritte.xlsx
+++ b/Arbeitsschritte.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vholt\Documents\Master\1.Semester\FortgeschritteneProgrammierung\Projekt\Project-Firefight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\HAW\Project-Firefight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AECC39-7677-4F00-AEC7-566CFABBCBA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65618D-EEA4-4293-B5C8-18CC519E0B88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
+    <workbookView xWindow="2415" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Project Firefight</t>
   </si>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB208B0-1560-4CD3-8CCC-413775C1C340}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,9 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>

--- a/Arbeitsschritte.xlsx
+++ b/Arbeitsschritte.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\HAW\Project-Firefight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vholt\Documents\Master\1.Semester\FortgeschritteneProgrammierung\Projekt\Project-Firefight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65618D-EEA4-4293-B5C8-18CC519E0B88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ED537A-BA66-4F17-9FAC-F2E2FD681AD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Project Firefight</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Wasserdüse Fkt</t>
   </si>
   <si>
-    <t xml:space="preserve">Zwei anpack Punkte erstellen, 1. zum festhalten der Düse &amp; 2. zum ziehen am Hebel. Wenn Pumpe mit Hydrant verbunden dann darf die Düse Wasser spritzen wenn der hebel nach hinten gezogen ist. </t>
-  </si>
-  <si>
     <t>Wasserdüse Modelle</t>
   </si>
   <si>
@@ -118,6 +115,21 @@
   </si>
   <si>
     <t>Verteilung der Polygone</t>
+  </si>
+  <si>
+    <t>Wasserdüse Anpacken und dann über nen Button aktivieren. Hebel Aniamtion startet und Raycast aktivieren zum verrignern der FeuerHP</t>
+  </si>
+  <si>
+    <t>Plan bis zum 01.06</t>
+  </si>
+  <si>
+    <t>- Wasserversorgung funktioniert</t>
+  </si>
+  <si>
+    <t>- Wasserdüse soll durch Raycast Feuer löschen können</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -168,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -185,6 +197,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,13 +520,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB208B0-1560-4CD3-8CCC-413775C1C340}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="68.28515625" customWidth="1"/>
@@ -522,7 +540,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="G1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -538,19 +556,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -558,20 +576,18 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -580,7 +596,9 @@
         <v>6</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
@@ -589,26 +607,30 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="2"/>
@@ -616,16 +638,16 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="2"/>
@@ -633,13 +655,13 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -648,29 +670,29 @@
     </row>
     <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="5"/>
@@ -688,7 +710,9 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -696,9 +720,11 @@
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -706,8 +732,10 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -838,8 +866,10 @@
       <c r="F29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitsschritte.xlsx
+++ b/Arbeitsschritte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vholt\Documents\Master\1.Semester\FortgeschritteneProgrammierung\Projekt\Project-Firefight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\HAW\Project-Firefight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ED537A-BA66-4F17-9FAC-F2E2FD681AD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737E1C94-8AFF-45B8-9078-21AA9A3CEFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Project Firefight</t>
   </si>
@@ -120,16 +120,43 @@
     <t>Wasserdüse Anpacken und dann über nen Button aktivieren. Hebel Aniamtion startet und Raycast aktivieren zum verrignern der FeuerHP</t>
   </si>
   <si>
-    <t>Plan bis zum 01.06</t>
-  </si>
-  <si>
-    <t>- Wasserversorgung funktioniert</t>
-  </si>
-  <si>
-    <t>- Wasserdüse soll durch Raycast Feuer löschen können</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>Tutorial Dialog</t>
+  </si>
+  <si>
+    <t>Tutorial Shader</t>
+  </si>
+  <si>
+    <t>Auswahl Szene</t>
+  </si>
+  <si>
+    <t>Textuelles / Audio Tutorial, das die einzelnen Schritte erklärt.</t>
+  </si>
+  <si>
+    <t>Shader zum Highlighten bestimmter Objekte im Tutorial (Outline Shader)</t>
+  </si>
+  <si>
+    <t>Szene zur Auswahl des Szenarios und Settings</t>
+  </si>
+  <si>
+    <t>Später:</t>
+  </si>
+  <si>
+    <t>Waldszene</t>
+  </si>
+  <si>
+    <t>Waldfeuer</t>
+  </si>
+  <si>
+    <t>Teich</t>
+  </si>
+  <si>
+    <t>Saugschläuche Fkt</t>
+  </si>
+  <si>
+    <t>Verbindungen fixieren und trennen</t>
+  </si>
+  <si>
+    <t>Verbindungen sollten fixiert sein (z.B. Schlauch bewegt sich, wenn Strahlrohr bewegt wird) und auch wieder trennbar sein</t>
   </si>
 </sst>
 </file>
@@ -180,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -195,14 +222,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB208B0-1560-4CD3-8CCC-413775C1C340}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,12 +557,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
@@ -612,10 +636,10 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
     </row>
@@ -629,19 +653,19 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -649,71 +673,82 @@
       <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="5"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -721,29 +756,38 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -752,7 +796,6 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -761,7 +804,6 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -770,7 +812,9 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -778,7 +822,9 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -786,7 +832,9 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -794,7 +842,9 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -802,7 +852,9 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -866,10 +918,8 @@
       <c r="F29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitsschritte.xlsx
+++ b/Arbeitsschritte.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\HAW\Project-Firefight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Master\1.Semester\FortgeschritteneProgrammierung\Projekt\Project-Firefight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737E1C94-8AFF-45B8-9078-21AA9A3CEFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10778DF4-A634-4571-A861-A7FE647CACF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
+    <workbookView xWindow="1590" yWindow="3195" windowWidth="23400" windowHeight="12555" xr2:uid="{D957DF76-B2F0-4DE9-BF90-64045C6D76CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Project Firefight</t>
   </si>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB208B0-1560-4CD3-8CCC-413775C1C340}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,8 +749,12 @@
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
